--- a/documents/ie_methods_brief/Differentiated_Plans_Table.xlsx
+++ b/documents/ie_methods_brief/Differentiated_Plans_Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>DRC</t>
   </si>
@@ -68,25 +68,24 @@
     <t>Key</t>
   </si>
   <si>
-    <t>Dose-response model</t>
-  </si>
-  <si>
-    <t>Country-specific tailored analyes</t>
+    <t>Mixed methods analysis of results chains</t>
   </si>
   <si>
     <t>*Known limitations to data may result in somewhat limited analysis
-+Known strengths in data may result in more extensive analysis 
-Split colors indicates a unique approach to each disease</t>
-  </si>
-  <si>
-    <t>Narrative descriptive analysis</t>
++Known strengths in data may result in more extensive analysis</t>
+  </si>
+  <si>
+    <t>Targeted impact analysis</t>
+  </si>
+  <si>
+    <t>Comprehensive impact modeling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,26 +97,42 @@
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
+      <sz val="18"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -153,12 +168,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEAF3E7"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -197,19 +212,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -265,6 +267,30 @@
       </top>
       <bottom style="medium">
         <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -283,65 +309,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D16"/>
+      <selection activeCell="B15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -651,128 +683,123 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="19"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:4" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="22" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="13" spans="1:4" ht="29.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="14" spans="1:4" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="22" t="s">
-        <v>14</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:4" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="1:4" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="15"/>
-      <c r="B16" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A11:D11"/>
+  <mergeCells count="5">
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
